--- a/meta/dimension.xlsx
+++ b/meta/dimension.xlsx
@@ -1,20 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Dropbox\Data Explorer 2.0\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="25440" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="dimension" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Reiter, Claudia</author>
+  </authors>
+  <commentList>
+    <comment ref="A72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Reiter, Claudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+only applicable with 6 education categories (edu8 = 0)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A73" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Reiter, Claudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+only applicable with 8 education categories (edu8 = 1)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>dim</t>
   </si>
@@ -178,18 +242,9 @@
     <t>Post Secondary</t>
   </si>
   <si>
-    <t>Highest level of education attained: Completed ISCED 4 5 or 6</t>
-  </si>
-  <si>
     <t>No Education</t>
   </si>
   <si>
-    <t>Based on SSP2, this scenario applies the same assumptions for all components but education. Hence for this scenario the attainment shares at age 30-34 of future cohorts are fixed at the levels observed in the base year (but adjusted where necessary if younger age groups in the base year already exhibit higher than predicted attainment).</t>
-  </si>
-  <si>
-    <t>Based on SSP2, this scenario applies the same assumptions for all components but education. Hence in this scenario the most rapid country-specific expansion parameters are applied to all countries throughout the projection period. In other words all countries follow the educational development paths taken in the past by the frontrunners in East and South-East Asia.</t>
-  </si>
-  <si>
     <t>Rapid Development (SSP1)</t>
   </si>
   <si>
@@ -199,30 +254,6 @@
     <t>Stalled Development (SSP3)</t>
   </si>
   <si>
-    <t>Inequality (SSP4)</t>
-  </si>
-  <si>
-    <t>Conventional Development (SSP5)</t>
-  </si>
-  <si>
-    <t>Medium-Constant Enrolment Rate (SSP2-CER)</t>
-  </si>
-  <si>
-    <t>Medium-Fast Track Education (SSP2-FT)</t>
-  </si>
-  <si>
-    <t>Population Component of Rapid Development (SSP1): This storyline assumes that educational and health investments accelerate the demographic transition leading to a relatively low world population. This implies assumptions of low mortality and high education for all three country groups. With respect to fertility assumptions the story is more complex. For rich OECD countries the emphasis on quality of life is assumed to make it easier for women to combine work and family, making further fertility declines unlikely. For this reason, the medium fertility assumption was chosen for this group of countries. Low fertility assumptions were chosen for all other countries as implied by the assumed rapid continuation of demographic transition. Migration levels were assumed to be medium for all countries under this SSP.</t>
-  </si>
-  <si>
-    <t>Population Component of Stalled Development (SSP3): In demographic terms this is a world with a stalled demographic transition. Fertility is assumed to be low in the rich OECD countries and high in the other two country groups. Population growth is assumed to be high in developing countries and low in industrialized countries. Accordingly, this scenario assumes high mortality and low education for all three country groupings. Due to the emphasis on security and barriers to international exchange, migration is assumed to be low for all countries.</t>
-  </si>
-  <si>
-    <t>Population Component of Inequality (SSP 4): In order to best reflect the inequality in education we developed a special scenario that produces a more polarized education distribution in every country. There is a group with very high education levels (which is bigger in the rich OECD countries) and large groups with low education levels. In terms of fertility, the national averages imply continued high fertility in today’s high fertility countries and continued low fertility in both groups of low fertility countries. The high fertility countries are assumed to suffer from high levels of mortality whereas the other two groups have medium mortality. Migration is assumed to be at the medium level for all countries.</t>
-  </si>
-  <si>
-    <t>Population Component of Conventional Development (SSP5): This world of conventional development features high education assumptions and low mortality assumptions across all countries. For fertility the pattern is strongly differentiated with relatively high fertility assumed for the rich OECD countries (as a consequence of high technology and a very high standard of living that allows for easier combination of work and family as well as the possibility for immigrant domestic assistants) and low fertility assumed for all other countries. The emphasis on market solutions and globalization also implies the assumption of high migration for all countries.</t>
-  </si>
-  <si>
     <t>100+</t>
   </si>
   <si>
@@ -244,35 +275,110 @@
     <t>SSP2</t>
   </si>
   <si>
-    <t>SSP2-CER</t>
-  </si>
-  <si>
-    <t>SSP2-FT</t>
-  </si>
-  <si>
     <t>SSP1</t>
   </si>
   <si>
     <t>SSP3</t>
   </si>
   <si>
-    <t>SSP4</t>
-  </si>
-  <si>
-    <t>SSP5</t>
-  </si>
-  <si>
     <t>Highest level of education attained: Completed ISCED 3 and incomplete ISCED 4 or 5</t>
   </si>
   <si>
     <t>Population Component of Medium (SSP2): This is the middle of the road scenario that can also be seen as the most likely path for each country. It combines for all countries medium fertility with medium mortality, medium migration, and the Global Education Trend (GET) education scenario.</t>
+  </si>
+  <si>
+    <t>Medium_Zero Migration (mig0_SSP2)</t>
+  </si>
+  <si>
+    <t>Medium _Double Migration (dblmig_SSP2)</t>
+  </si>
+  <si>
+    <t>mig0_SSP2</t>
+  </si>
+  <si>
+    <t>dblmig_SSP2</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Highest level of education attained: Completed ISCED 6 and incomplete ISCED 7</t>
+  </si>
+  <si>
+    <t>Highest level of education attained: Completed ISCED 7 or 8</t>
+  </si>
+  <si>
+    <t>Highest level of education attained: Completed ISCED 4 5 6 7 or 8</t>
+  </si>
+  <si>
+    <t>Highest level of education attained: Completed ISCED 4 or 5</t>
+  </si>
+  <si>
+    <t>Master and higher</t>
+  </si>
+  <si>
+    <t>Short Post Secondary</t>
+  </si>
+  <si>
+    <t>Population Component of Rapid Development (SSP1): This scenario assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this SSP.</t>
+  </si>
+  <si>
+    <t>Population Component of Stalled Development (SSP3): This scenario portrays a world separated into regions characterised by extreme poverty, pockets of moderate wealth, and many countries struggling to maintain living standards for rapidly growing populations.  This is associated with low education, high mortality and high fertility. Due to the emphasis on security and barriers to international exchange, migration is assumed to be low for all countries.</t>
+  </si>
+  <si>
+    <t>Population Component of Medium (SSP2): This is the middle of the road scenario with Zero migration flows.</t>
+  </si>
+  <si>
+    <t>Population Component of Medium (SSP2): This is the middle of the road scenario with Double migration flows.</t>
+  </si>
+  <si>
+    <t>kccode</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>e6i</t>
+  </si>
+  <si>
+    <t>e7i</t>
+  </si>
+  <si>
+    <t>e8i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +514,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +706,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -750,8 +881,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -803,6 +937,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -850,7 +987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,7 +1022,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1093,19 +1230,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,885 +1250,1144 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C6">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="F24">
         <v>80</v>
       </c>
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
+      <c r="F29">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F58">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C59">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F59">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C60">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C61">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C63">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65">
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="E73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B74" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>54</v>
-      </c>
+      <c r="B74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="1">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/meta/dimension.xlsx
+++ b/meta/dimension.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Dropbox\Data Explorer 2.0\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\wcde2\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="dimension" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
   <si>
     <t>dim</t>
   </si>
@@ -281,18 +281,9 @@
     <t>SSP3</t>
   </si>
   <si>
-    <t>Highest level of education attained: Completed ISCED 3 and incomplete ISCED 4 or 5</t>
-  </si>
-  <si>
     <t>Population Component of Medium (SSP2): This is the middle of the road scenario that can also be seen as the most likely path for each country. It combines for all countries medium fertility with medium mortality, medium migration, and the Global Education Trend (GET) education scenario.</t>
   </si>
   <si>
-    <t>Medium_Zero Migration (mig0_SSP2)</t>
-  </si>
-  <si>
-    <t>Medium _Double Migration (dblmig_SSP2)</t>
-  </si>
-  <si>
     <t>mig0_SSP2</t>
   </si>
   <si>
@@ -335,12 +326,6 @@
     <t>kccode</t>
   </si>
   <si>
-    <t>0014</t>
-  </si>
-  <si>
-    <t>0019</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -372,12 +357,27 @@
   </si>
   <si>
     <t>e8i</t>
+  </si>
+  <si>
+    <t>Highest level of education attained: Completed ISCED 3 and incomplete ISCED 4 5 or 6</t>
+  </si>
+  <si>
+    <t>Medium - Zero Migration (SSP2 - ZM)</t>
+  </si>
+  <si>
+    <t>Medium - Double Migration (SSP2 - DM)</t>
+  </si>
+  <si>
+    <t>SSP2DM</t>
+  </si>
+  <si>
+    <t>SSP2ZM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1234,15 +1234,16 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1259,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1276,13 +1277,13 @@
         <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1296,13 +1297,13 @@
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1316,53 +1317,53 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1694,11 +1695,11 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1708,11 +1709,11 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2157,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2171,10 +2172,10 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -2219,10 +2220,10 @@
         <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -2236,10 +2237,10 @@
         <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -2253,10 +2254,10 @@
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -2270,10 +2271,10 @@
         <v>51</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -2284,13 +2285,13 @@
         <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>41</v>
       </c>
@@ -2302,10 +2303,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -2314,22 +2315,22 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C73" s="1">
         <v>8</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -2338,22 +2339,22 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1">
         <v>9</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -2362,22 +2363,22 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1">
         <v>10</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>

--- a/meta/dimension.xlsx
+++ b/meta/dimension.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\wcde2\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Dropbox\Data Explorer 2.0\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <author>Reiter, Claudia</author>
   </authors>
   <commentList>
-    <comment ref="A72" authorId="0" shapeId="0">
+    <comment ref="A73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A73" authorId="0" shapeId="0">
+    <comment ref="A74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
   <si>
     <t>dim</t>
   </si>
@@ -372,12 +372,21 @@
   </si>
   <si>
     <t>SSP2ZM</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Population Component of Back Projection (BP): This is the past estimates by UN, WPP2017 and WiC's education back projection.</t>
+  </si>
+  <si>
+    <t>Back Projection (BP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1231,19 +1240,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1332,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1363,998 +1372,991 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>-9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="F11">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="F12">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>6</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>13</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>14</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>15</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>16</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>17</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>18</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>19</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>20</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>21</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>4064</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>10</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>2064</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F56">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F58">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
       <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="F61">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
         <v>58</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>21</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
       <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
         <v>40</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>2</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F66">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>41</v>
       </c>
       <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
         <v>52</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>6</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>93</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C73" s="2">
         <v>7</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="1">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -2363,22 +2365,22 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C75" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -2387,6 +2389,30 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/meta/dimension.xlsx
+++ b/meta/dimension.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Dropbox\Data Explorer 2.0\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="dimension" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -24,7 +19,7 @@
     <author>Reiter, Claudia</author>
   </authors>
   <commentList>
-    <comment ref="A73" authorId="0" shapeId="0">
+    <comment ref="A72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0" shapeId="0">
+    <comment ref="A73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
   <si>
     <t>dim</t>
   </si>
@@ -372,21 +367,12 @@
   </si>
   <si>
     <t>SSP2ZM</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>Population Component of Back Projection (BP): This is the past estimates by UN, WPP2017 and WiC's education back projection.</t>
-  </si>
-  <si>
-    <t>Back Projection (BP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,7 +982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1031,7 +1017,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,19 +1226,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1292,7 +1278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1318,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1352,7 +1338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1372,991 +1358,998 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="F28">
         <v>100</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F29">
         <v>-9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="F21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <v>16</v>
-      </c>
-      <c r="F24">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>18</v>
-      </c>
-      <c r="F26">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27">
-        <v>19</v>
-      </c>
-      <c r="F27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29">
-        <v>21</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>4064</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>0</v>
       </c>
-      <c r="F41">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F57">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F58">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F59">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F60">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F61">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72">
-        <v>6</v>
-      </c>
-      <c r="E72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="B72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="2">
-        <v>7</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -2365,22 +2358,22 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -2389,30 +2382,6 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="1">
-        <v>10</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/meta/dimension.xlsx
+++ b/meta/dimension.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yildiz\Dropbox\PC\Documents\GitHub\wcde-shiny-2023\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49281192-DD38-49C6-9975-54E777728B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13500"/>
+    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dimension" sheetId="1" r:id="rId1"/>
@@ -13,67 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Reiter, Claudia</author>
-  </authors>
-  <commentList>
-    <comment ref="A72" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Reiter, Claudia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-only applicable with 6 education categories (edu8 = 0)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A73" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Reiter, Claudia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-only applicable with 8 education categories (edu8 = 1)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>dim</t>
   </si>
@@ -285,27 +232,9 @@
     <t>dblmig_SSP2</t>
   </si>
   <si>
-    <t>Bachelor</t>
-  </si>
-  <si>
-    <t>Highest level of education attained: Completed ISCED 6 and incomplete ISCED 7</t>
-  </si>
-  <si>
-    <t>Highest level of education attained: Completed ISCED 7 or 8</t>
-  </si>
-  <si>
     <t>Highest level of education attained: Completed ISCED 4 5 6 7 or 8</t>
   </si>
   <si>
-    <t>Highest level of education attained: Completed ISCED 4 or 5</t>
-  </si>
-  <si>
-    <t>Master and higher</t>
-  </si>
-  <si>
-    <t>Short Post Secondary</t>
-  </si>
-  <si>
     <t>Population Component of Rapid Development (SSP1): This scenario assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this SSP.</t>
   </si>
   <si>
@@ -345,15 +274,6 @@
     <t>e6</t>
   </si>
   <si>
-    <t>e6i</t>
-  </si>
-  <si>
-    <t>e7i</t>
-  </si>
-  <si>
-    <t>e8i</t>
-  </si>
-  <si>
     <t>Highest level of education attained: Completed ISCED 3 and incomplete ISCED 4 5 or 6</t>
   </si>
   <si>
@@ -367,13 +287,31 @@
   </si>
   <si>
     <t>SSP2ZM</t>
+  </si>
+  <si>
+    <t>Inequality (SSP4)</t>
+  </si>
+  <si>
+    <t>SSP4</t>
+  </si>
+  <si>
+    <t>Conventional development (SSP5)</t>
+  </si>
+  <si>
+    <t>SSP5</t>
+  </si>
+  <si>
+    <t>Population Component of Inequality (SSP4): This scenario assumes increasing inequalities and stratification both across and within countries. It assumes high fertility and mortality scenarios in high-fertility countries and low fertility and medium mortality scenarios in low-fertility countries combined with medium migration scenario. In terms of education the SSP3 education transitions (CER) are decreased by 10% for levels up to lower secondary education, keeping the SSP2 (GET) education transitions for upper and post-secondary education.</t>
+  </si>
+  <si>
+    <t>Population Component of Conventional Development (SSP5): This scenario is similar to SSP1 for the fertility, mortality and education assumptions except that it combines them with high migration scenario in a context of widespread globalization.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,21 +447,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,18 +626,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -876,11 +789,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -940,9 +852,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -980,7 +892,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1052,7 +964,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1225,20 +1137,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,10 +1167,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1190,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1292,13 +1204,13 @@
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1312,1078 +1224,1032 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>-9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="F11">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>6</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>13</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>14</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>15</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>16</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>17</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>18</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>19</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>20</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>21</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>4064</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>10</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>2064</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="F45">
         <v>10</v>
       </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="F45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F55">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F57">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F58">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F59">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F60">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>37</v>
       </c>
       <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="F61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="F62">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s">
         <v>58</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <v>21</v>
       </c>
-      <c r="F61">
+      <c r="F63">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>38</v>
       </c>
       <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
         <v>40</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>2</v>
       </c>
-      <c r="F64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F67">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>41</v>
       </c>
       <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
         <v>52</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>6</v>
       </c>
-      <c r="E71" t="s">
-        <v>93</v>
-      </c>
-      <c r="F71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C74" s="2">
         <v>7</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="1">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="E74" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="1">
-        <v>9</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="1">
-        <v>10</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="F74" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/meta/dimension.xlsx
+++ b/meta/dimension.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yildiz\Dropbox\PC\Documents\GitHub\wcde-shiny-2023\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\WCDE for Guy\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49281192-DD38-49C6-9975-54E777728B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7F3CD5-6B3C-4DB4-AD3C-7786DFCBEA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dimension" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>dim</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Population Component of Conventional Development (SSP5): This scenario is similar to SSP1 for the fertility, mortality and education assumptions except that it combines them with high migration scenario in a context of widespread globalization.</t>
+  </si>
+  <si>
+    <t>wcde_code</t>
   </si>
 </sst>
 </file>
@@ -789,10 +792,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1138,19 +1140,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="42.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,13 +1166,16 @@
         <v>63</v>
       </c>
       <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1183,14 +1188,17 @@
       <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1203,14 +1211,17 @@
       <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1223,14 +1234,17 @@
       <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1243,14 +1257,17 @@
       <c r="D5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>73</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1263,14 +1280,17 @@
       <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1283,11 +1303,14 @@
       <c r="D7" t="s">
         <v>90</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1300,11 +1323,14 @@
       <c r="D8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1314,11 +1340,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1328,11 +1354,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1342,11 +1368,11 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1356,11 +1382,11 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1370,11 +1396,11 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1384,11 +1410,11 @@
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1398,11 +1424,11 @@
       <c r="C15">
         <v>6</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1412,11 +1438,11 @@
       <c r="C16">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1426,11 +1452,11 @@
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1440,11 +1466,11 @@
       <c r="C18">
         <v>9</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1454,11 +1480,11 @@
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1468,11 +1494,11 @@
       <c r="C20">
         <v>11</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1482,11 +1508,11 @@
       <c r="C21">
         <v>12</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1496,11 +1522,11 @@
       <c r="C22">
         <v>13</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1510,11 +1536,11 @@
       <c r="C23">
         <v>14</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1524,11 +1550,11 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1538,11 +1564,11 @@
       <c r="C25">
         <v>16</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1552,11 +1578,11 @@
       <c r="C26">
         <v>17</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1566,11 +1592,11 @@
       <c r="C27">
         <v>18</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1580,11 +1606,11 @@
       <c r="C28">
         <v>19</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1594,11 +1620,11 @@
       <c r="C29">
         <v>20</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1608,11 +1634,11 @@
       <c r="C30">
         <v>21</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1622,11 +1648,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1636,11 +1662,11 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1650,11 +1676,11 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1664,11 +1690,11 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1500</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1678,11 +1704,11 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2500</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1692,11 +1718,11 @@
       <c r="C36">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2039</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1706,11 +1732,11 @@
       <c r="C37">
         <v>6</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>4064</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1720,11 +1746,11 @@
       <c r="C38">
         <v>7</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>6000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1734,11 +1760,11 @@
       <c r="C39">
         <v>8</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>6500</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1748,11 +1774,11 @@
       <c r="C40">
         <v>9</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>8000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1762,11 +1788,11 @@
       <c r="C41">
         <v>10</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>2064</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1776,11 +1802,11 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>-5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1790,11 +1816,11 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1804,11 +1830,11 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1818,11 +1844,11 @@
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1832,11 +1858,11 @@
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1846,11 +1872,11 @@
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -1860,11 +1886,11 @@
       <c r="C48">
         <v>6</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1874,11 +1900,11 @@
       <c r="C49">
         <v>7</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -1888,11 +1914,11 @@
       <c r="C50">
         <v>8</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1902,11 +1928,11 @@
       <c r="C51">
         <v>9</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -1916,11 +1942,11 @@
       <c r="C52">
         <v>10</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -1930,11 +1956,11 @@
       <c r="C53">
         <v>11</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1944,11 +1970,11 @@
       <c r="C54">
         <v>12</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -1958,11 +1984,11 @@
       <c r="C55">
         <v>13</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -1972,11 +1998,11 @@
       <c r="C56">
         <v>14</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -1986,11 +2012,11 @@
       <c r="C57">
         <v>15</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -2000,11 +2026,11 @@
       <c r="C58">
         <v>16</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -2014,11 +2040,11 @@
       <c r="C59">
         <v>17</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -2028,11 +2054,11 @@
       <c r="C60">
         <v>18</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -2042,11 +2068,11 @@
       <c r="C61">
         <v>19</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -2056,11 +2082,11 @@
       <c r="C62">
         <v>20</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -2070,11 +2096,11 @@
       <c r="C63">
         <v>21</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2084,11 +2110,11 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>-9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2098,11 +2124,11 @@
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -2112,11 +2138,11 @@
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -2126,14 +2152,14 @@
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>42</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>-9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -2143,11 +2169,11 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -2157,14 +2183,14 @@
       <c r="C69">
         <v>2</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>45</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -2174,14 +2200,14 @@
       <c r="C70">
         <v>3</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>47</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -2191,14 +2217,14 @@
       <c r="C71">
         <v>4</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>49</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -2208,14 +2234,14 @@
       <c r="C72">
         <v>5</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>51</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -2225,27 +2251,27 @@
       <c r="C73">
         <v>6</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>84</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>7</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" t="s">
         <v>70</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" t="s">
         <v>83</v>
       </c>
     </row>

--- a/meta/dimension.xlsx
+++ b/meta/dimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\WCDE for Guy\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7F3CD5-6B3C-4DB4-AD3C-7786DFCBEA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A8862-0A3B-42CE-9C69-C9667EEBDD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,9 +295,6 @@
     <t>SSP4</t>
   </si>
   <si>
-    <t>Conventional development (SSP5)</t>
-  </si>
-  <si>
     <t>SSP5</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>wcde_code</t>
+  </si>
+  <si>
+    <t>Conventional Development (SSP5)</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1166,7 +1166,7 @@
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1315,19 +1315,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">

--- a/meta/dimension.xlsx
+++ b/meta/dimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\WCDE for Guy\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A8862-0A3B-42CE-9C69-C9667EEBDD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031E3B3-0D4C-42D8-B996-A1C3C653E05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,12 +241,6 @@
     <t>Population Component of Stalled Development (SSP3): This scenario portrays a world separated into regions characterised by extreme poverty, pockets of moderate wealth, and many countries struggling to maintain living standards for rapidly growing populations.  This is associated with low education, high mortality and high fertility. Due to the emphasis on security and barriers to international exchange, migration is assumed to be low for all countries.</t>
   </si>
   <si>
-    <t>Population Component of Medium (SSP2): This is the middle of the road scenario with Zero migration flows.</t>
-  </si>
-  <si>
-    <t>Population Component of Medium (SSP2): This is the middle of the road scenario with Double migration flows.</t>
-  </si>
-  <si>
     <t>kccode</t>
   </si>
   <si>
@@ -308,6 +302,12 @@
   </si>
   <si>
     <t>Conventional Development (SSP5)</t>
+  </si>
+  <si>
+    <t>Population Component of Medium (SSP2): Middle of the road scenario with zero migration flows.</t>
+  </si>
+  <si>
+    <t>Population Component of Medium (SSP2): Middle of the road scenario with double migration flows.</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1166,13 +1166,13 @@
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1249,19 +1249,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
         <v>68</v>
@@ -1272,19 +1272,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
         <v>69</v>
@@ -1295,19 +1295,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
         <v>90</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1315,19 +1315,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2139,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2187,7 +2187,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2204,7 +2204,7 @@
         <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2221,7 +2221,7 @@
         <v>49</v>
       </c>
       <c r="G71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2238,7 +2238,7 @@
         <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2252,10 +2252,10 @@
         <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2272,7 +2272,7 @@
         <v>70</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
